--- a/자료/20210813_☆마케팅보고서.xlsx
+++ b/자료/20210813_☆마케팅보고서.xlsx
@@ -3148,12 +3148,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>드림캐쳐 &gt; 2</t>
+          <t>패브릭포스터 &gt; 1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>문패 &gt; 5</t>
+          <t>캠핑문패 &gt; 4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3168,37 +3168,37 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>마루바닥보수 &gt; 3</t>
+          <t>줄눈테이프 &gt; 5</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>폴딩도어 &gt; 3</t>
+          <t>흡음재 &gt; 5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>아크릴명패 &gt; 3</t>
+          <t>명패 &gt; 1</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>휀스 &gt; 4</t>
+          <t>폴리카보네이트 &gt; 5</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>박스테이프 &gt; 1</t>
+          <t>초강력양면테이프 &gt; 5</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>파이프커터기 &gt; 3</t>
+          <t>동관커터기 &gt; 13</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>창문시트지 &gt; 1</t>
+          <t>사생활보호필름 &gt; 5</t>
         </is>
       </c>
     </row>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>현수막 &gt; 6</t>
+          <t>칠순현수막 &gt; 5</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>대리석트레이 &gt; 11</t>
+          <t>인테리어모빌 &gt; 7</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>현판 &gt; 6</t>
+          <t>문패 &gt; 5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3244,22 +3244,22 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>아프로시트 &gt; 8</t>
+          <t>칠판시트지 &gt; 2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>frp보수 &gt; 10</t>
+          <t>장판본드 &gt; 8</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>미닫이문 &gt; 10</t>
+          <t>방문교체 &gt; 6</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>나무명패 &gt; 4</t>
+          <t>아크릴명패 &gt; 3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>벨크로 &gt; 9</t>
+          <t>욕실방수테이프 &gt; 11</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>로덴베르거 &gt; 7</t>
+          <t>pvc파이프커터 &gt; 14</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3305,22 +3305,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>배너 &gt; 8</t>
+          <t>현수막제작 &gt; 7</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>대형패브릭포스터 &gt; 12</t>
+          <t>벽장식 &gt; 8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>화장실표지판 &gt; 7</t>
+          <t>현판 &gt; 6</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>펜던트조명 &gt; 10</t>
+          <t>바다무드등 &gt; 7</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>강화마루보수 &gt; 15</t>
+          <t>욕조보수 &gt; 17</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3340,27 +3340,27 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>대표명패 &gt; 8</t>
+          <t>삼각명패 &gt; 12</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>렉산 &gt; 8</t>
+          <t>현관문말발굽 &gt; 11</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>욕실방수테이프 &gt; 11</t>
+          <t>강력양면테이프 &gt; 12</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>동커터기 &gt; 17</t>
+          <t>튜브커터 &gt; 19</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>암막시트지 &gt; 10</t>
+          <t>무점착창문시트지 &gt; 11</t>
         </is>
       </c>
     </row>
@@ -3386,62 +3386,62 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>팔순현수막 &gt; 13</t>
+          <t>pop글씨 &gt; 14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>모형책 &gt; 14</t>
+          <t>유리구슬 &gt; 16</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>나무간판 &gt; 9</t>
+          <t>화장실표지판 &gt; 7</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>썬셋조명 &gt; 21</t>
+          <t>펜던트조명 &gt; 10</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>싱크대시트지 &gt; 13</t>
+          <t>유광시트지 &gt; 11</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>월패치 &gt; 18</t>
+          <t>욕실타일보수 &gt; 20</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>의자매트 &gt; 21</t>
+          <t>선반브라켓 &gt; 16</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>블랙크리스탈명패 &gt; 17</t>
+          <t>원목명패 &gt; 15</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>현관문말발굽 &gt; 11</t>
+          <t>계단미끄럼방지패드 &gt; 12</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>강력접착테이프 &gt; 18</t>
+          <t>부직포테이프 &gt; 15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>동파이프커터기 &gt; 21</t>
+          <t>타일컷터기 &gt; 20</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>창문선팅지 &gt; 14</t>
+          <t>반투명시트지 &gt; 16</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>철제배너 &gt; 20</t>
+          <t>실사출력 &gt; 16</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>간판 &gt; 10</t>
+          <t>현관문패 &gt; 15</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3488,32 +3488,32 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>접착시트지 &gt; 14</t>
+          <t>템바보드시트지 &gt; 21</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>줄눈마카 &gt; 19</t>
+          <t>록타이트리뉴 &gt; 23</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>문 &gt; 23</t>
+          <t>액자걸이 &gt; 22</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>명폐 &gt; 21</t>
+          <t>교장명패 &gt; 19</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>주차차단기 &gt; 16</t>
+          <t>지붕판넬 &gt; 17</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>야광테이프 &gt; 20</t>
+          <t>커버링테이프 &gt; 17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>창문사생활보호 &gt; 18</t>
+          <t>창문필름 &gt; 17</t>
         </is>
       </c>
     </row>
@@ -3549,22 +3549,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>베너거치대 &gt; 23</t>
+          <t>a형입간판 &gt; 21</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>헌팅트로피 &gt; 18</t>
+          <t>썬캐쳐만들기 &gt; 21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>현관문패 &gt; 15</t>
+          <t>아이방문패 &gt; 24</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>앵두전구 &gt; 23</t>
+          <t>간접조명 &gt; 25</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -3574,12 +3574,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>록타이트리뉴 &gt; 23</t>
+          <t>장판보수 &gt; 24</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>침대헤드보드 &gt; 24</t>
+          <t>점검구 &gt; 25</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3589,12 +3589,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>지붕판넬 &gt; 17</t>
+          <t>각반 &gt; 19</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>다용도방수테이프 &gt; 25</t>
+          <t>찍찍이테이프 &gt; 22</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>베란다창문시트지 &gt; 24</t>
+          <t>창문열차단필름 &gt; 22</t>
         </is>
       </c>
     </row>
@@ -3630,62 +3630,62 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>플랭카드 &gt; 68</t>
+          <t>스탠드안내판 &gt; 77</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>유리돔 &gt; 35</t>
+          <t>무지개마크라메 &gt; 31</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>금속간판 &gt; 83</t>
+          <t>호수판 &gt; 31</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>무선조명 &gt; 41</t>
+          <t>당기는전구 &gt; 55</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>pvc시트 &gt; 76</t>
+          <t>낙서벽지 &gt; 35</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>네바리 &gt; 60</t>
+          <t>테낙스 &gt; 39</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>식탁유리 &gt; 31</t>
+          <t>자석말발굽 &gt; 54</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>명패만들기 &gt; 31</t>
+          <t>명패가격 &gt; 73</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>상체식안전벨트 &gt; 34</t>
+          <t>차량고임목 &gt; 72</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>박스테이프제작 &gt; 35</t>
+          <t>은박테이프 &gt; 44</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>파이프컷팅기 &gt; 26</t>
+          <t>tcb105 &gt; 58</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>거울필름 &gt; 31</t>
+          <t>망입유리시트지 &gt; 40</t>
         </is>
       </c>
     </row>
@@ -3711,62 +3711,62 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>근조기 &gt; 69</t>
+          <t>네일샵배너 &gt; 91</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>자개모빌만들기 &gt; 57</t>
+          <t>수정구슬 &gt; 91</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>나무이름표 &gt; 85</t>
+          <t>포인트간판 &gt; 66</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>led줄조명 &gt; 75</t>
+          <t>달조명 &gt; 100</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>보드마카시트지 &gt; 93</t>
+          <t>현대시트지 &gt; 56</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>가죽보수 &gt; 85</t>
+          <t>겔코트 &gt; 46</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>전선캡 &gt; 41</t>
+          <t>가구받침대 &gt; 57</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>금속명패 &gt; 33</t>
+          <t>msds그림문자 &gt; 78</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>주차장차단기 &gt; 85</t>
+          <t>골판렉산 &gt; 98</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>오공테이프 &gt; 88</t>
+          <t>신선식품테이프 &gt; 77</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>커터칼 &gt; 72</t>
+          <t>스텐파이프커터기 &gt; 73</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>제비스코열차단필름 &gt; 49</t>
+          <t>어린이집썬팅 &gt; 79</t>
         </is>
       </c>
     </row>
@@ -3792,62 +3792,62 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>물통배너거치대 &gt; 122</t>
+          <t>바다배경현수막 &gt; 358</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>공중전화부스 &gt; 267</t>
+          <t>스톤트레이 &gt; 273</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>안내판제작 &gt; 109</t>
+          <t>테이블번호판 &gt; 467</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>네온플렉스 &gt; 285</t>
+          <t>주문제작무드등 &gt; 324</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>책상리폼시트지 &gt; 386</t>
+          <t>장덕수시트지 &gt; 256</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>가구마카 &gt; 200</t>
+          <t>쇼파수선테이프 &gt; 321</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>크레홈 &gt; 338</t>
+          <t>현관문자석스토퍼 &gt; 287</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>관리소장명패 &gt; 231</t>
+          <t>탁상용명패 &gt; 137</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>실외기진동 &gt; 461</t>
+          <t>미끄럼방지스프레이 &gt; 129</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>카바링 &gt; 183</t>
+          <t>접착테이프 &gt; 164</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>tcb107 &gt; 320</t>
+          <t>컷쏘 &gt; 119</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>미러썬팅지 &gt; 183</t>
+          <t>dmck &gt; 315</t>
         </is>
       </c>
     </row>
@@ -3873,62 +3873,62 @@
       </c>
       <c r="L22" s="12" t="inlineStr">
         <is>
-          <t>뉴마커스 &gt; 332</t>
+          <t>여름캠프현수막 &gt; 435</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>매미모형 &gt; 476</t>
+          <t>아기방 &gt; 322</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>사무실명판 &gt; 209</t>
+          <t>계좌안내판 &gt; 473</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>건전지전구 &gt; 353</t>
+          <t>벽난로무드등 &gt; 429</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>인테리어필름시공칼 &gt; 449</t>
+          <t>화이트보드코팅지 &gt; 336</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>데코타일보수 &gt; 218</t>
+          <t>고려풀500g &gt; 497</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>구멍마개 &gt; 375</t>
+          <t>문틀세트 &gt; 471</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>문명패 &gt; 410</t>
+          <t>삼각명패25*8 &gt; 257</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>스텐자바라대문 &gt; 478</t>
+          <t>네파안전벨트 &gt; 257</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>크림하우스테이프 &gt; 402</t>
+          <t>flextape &gt; 196</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>블랙다이아몬드동관커터기 &gt; 466</t>
+          <t>xl파이프커터 &gt; 446</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>무점착썬팅지 &gt; 330</t>
+          <t>건축용필름 &gt; 497</t>
         </is>
       </c>
     </row>
